--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints6.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints6.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.965146225005418e-07</v>
+        <v>4.875849121120047e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>4.955963100039057e-07</v>
+        <v>5.002438627303012e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>4.997152617065622e-07</v>
+        <v>5.147904827801222e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>5.085005447197895e-07</v>
+        <v>5.311270689146971e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>5.215812261548786e-07</v>
+        <v>5.491559177873118e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>5.385863731231186e-07</v>
+        <v>5.687793260512339e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>5.591450527358281e-07</v>
+        <v>5.898995903597603e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>5.828863321042419e-07</v>
+        <v>6.124190073661034e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>6.094392783396735e-07</v>
+        <v>6.362398737235574e-07</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>6.384329585534518e-07</v>
+        <v>6.612644860854244e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>6.694964398567894e-07</v>
+        <v>6.873951411049062e-07</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>7.022587893610122e-07</v>
+        <v>7.145341354353029e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>7.363490741774542e-07</v>
+        <v>7.425837657299195e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>7.713963614173153e-07</v>
+        <v>7.714463286419506e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>8.070297181919282e-07</v>
+        <v>8.010241208246998e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>8.428782116125823e-07</v>
+        <v>8.312194389314356e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>8.785709087906131e-07</v>
+        <v>8.61934579615466e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>9.13736876837216e-07</v>
+        <v>8.930718395299788e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>9.480151773468907e-07</v>
+        <v>9.245333610897697e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>9.812458583656848e-07</v>
+        <v>9.562181850133736e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.013455106619782e-06</v>
+        <v>9.88022479459159e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.044676128280464e-06</v>
+        <v>1.019842304258985e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.074942129518969e-06</v>
+        <v>1.051573719244666e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.104286316506571e-06</v>
+        <v>1.083112784248062e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.132741895414429e-06</v>
+        <v>1.114355559100905e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.160342072413821e-06</v>
+        <v>1.145198103635054e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.187120053676019e-06</v>
+        <v>1.175536477682365e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.213109045372188e-06</v>
+        <v>1.205266741074573e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.238342253673602e-06</v>
+        <v>1.234284953643537e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.262852884751498e-06</v>
+        <v>1.262487175221072e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.286674144777144e-06</v>
+        <v>1.28976946563903e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.309839239921713e-06</v>
+        <v>1.316027884729155e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.332381376356476e-06</v>
+        <v>1.341158492323301e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.354333760252698e-06</v>
+        <v>1.365057348253315e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.37571416923513e-06</v>
+        <v>1.387626317228597e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.396437121687471e-06</v>
+        <v>1.408806114492194e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.416374756181071e-06</v>
+        <v>1.428553400381297e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.435399082074043e-06</v>
+        <v>1.44682488384852e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.453382108724582e-06</v>
+        <v>1.46357727384656e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.470195845490855e-06</v>
+        <v>1.478767279328083e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.485712301731046e-06</v>
+        <v>1.492351609245775e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.499803486803283e-06</v>
+        <v>1.504286972552268e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.512341410065754e-06</v>
+        <v>1.514530078200248e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.523198080876639e-06</v>
+        <v>1.523037635142395e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.532245508594075e-06</v>
+        <v>1.529766352331353e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.539355702576246e-06</v>
+        <v>1.534672938719802e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.544400672181318e-06</v>
+        <v>1.537714103260412e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.547252426767461e-06</v>
+        <v>1.538846554905849e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.547782975692832e-06</v>
+        <v>1.538027002608779e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.545883128408819e-06</v>
+        <v>1.535225679265867e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.541685388029451e-06</v>
+        <v>1.530586681356265e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.535489931499758e-06</v>
+        <v>1.524374722394056e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.527600308616982e-06</v>
+        <v>1.516856942171945e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.518320069178358e-06</v>
+        <v>1.508300480482633e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.507952762981157e-06</v>
+        <v>1.498972477118854e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.496801939822615e-06</v>
+        <v>1.489140071873308e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.48517114949998e-06</v>
+        <v>1.479070404538707e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.473363941810483e-06</v>
+        <v>1.46903061490775e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.461683866551403e-06</v>
+        <v>1.459287842773176e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.450434473519971e-06</v>
+        <v>1.450109227927682e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.439919312513422e-06</v>
+        <v>1.441761910163969e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.430433209292667e-06</v>
+        <v>1.434504531357076e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.422056434871905e-06</v>
+        <v>1.428386739688875e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.414646685684649e-06</v>
+        <v>1.423241377680511e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.40805132948407e-06</v>
+        <v>1.418891226882291e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.402117734023362e-06</v>
+        <v>1.415159068844535e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.396693267055695e-06</v>
+        <v>1.411867685117548e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.391625296334241e-06</v>
+        <v>1.408839857251638e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.38676118961219e-06</v>
+        <v>1.405898366797124e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.381948314642715e-06</v>
+        <v>1.402865995304311e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.377034039178986e-06</v>
+        <v>1.399565524323505e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.371865730974195e-06</v>
+        <v>1.395819735405027e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.366290757781513e-06</v>
+        <v>1.391451410099182e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>1.360156487354119e-06</v>
+        <v>1.386283329956283e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>1.353310287445181e-06</v>
+        <v>1.380138276526629e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.345599525807896e-06</v>
+        <v>1.372839031360549e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>1.336871570195433e-06</v>
+        <v>1.364208376008346e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>1.326973788360956e-06</v>
+        <v>1.354069092020316e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>1.315753548057669e-06</v>
+        <v>1.342243960946796e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>1.303058217038739e-06</v>
+        <v>1.328555764338085e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>1.288735163057343e-06</v>
+        <v>1.312827283744494e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>1.272631753866638e-06</v>
+        <v>1.294881300716309e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>1.254595357219843e-06</v>
+        <v>1.274540596803886e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>1.234473340870117e-06</v>
+        <v>1.251627953557515e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>1.212113072570608e-06</v>
+        <v>1.225966152527471e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>1.187361920074551e-06</v>
+        <v>1.197377975264133e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>1.160067251135098e-06</v>
+        <v>1.165686203317778e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>1.130208049028297e-06</v>
+        <v>1.130895808086815e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>1.098447453306047e-06</v>
+        <v>1.093958809807465e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>1.065670208190296e-06</v>
+        <v>1.056133986766131e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>1.032761171597302e-06</v>
+        <v>1.018680274631515e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.000605201443323e-06</v>
+        <v>9.828566090723173e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>9.700871556447451e-07</v>
+        <v>9.499219257573813e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>9.420918921178243e-07</v>
+        <v>9.211351603554062e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>9.175042687788304e-07</v>
+        <v>8.977552485351126e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>8.972091435441292e-07</v>
+        <v>8.810411259653106e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>8.820913743299857e-07</v>
+        <v>8.722517283147135e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>8.730358190526986e-07</v>
+        <v>8.726459912520681e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>8.709273356285707e-07</v>
+        <v>8.834828504461436e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>8.766507819739077e-07</v>
+        <v>9.060212415656605e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>4.986983845188027e-07</v>
+        <v>5.017211761495207e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>6.471610309751471e-07</v>
+        <v>6.530536966591491e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>6.197944825101585e-07</v>
+        <v>6.349466523878554e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>8.554387386204155e-07</v>
+        <v>8.617979612918081e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.079435728474216e-06</v>
+        <v>1.074529116807781e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.105398505820243e-06</v>
+        <v>1.101061228271896e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.823726401334083e-06</v>
+        <v>1.830591025373655e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>4.844178622376357e-06</v>
+        <v>4.861311626824668e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>9.805875043419028e-06</v>
+        <v>9.832217495305171e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.225130455468916e-05</v>
+        <v>1.229716256829617e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.300407583545898e-05</v>
+        <v>1.303182632663988e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.310889478955515e-05</v>
+        <v>1.308614985715467e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.271764607763642e-05</v>
+        <v>1.268443022923625e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.212110208529887e-05</v>
+        <v>1.211706508868282e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.166960527631469e-05</v>
+        <v>1.169032761912443e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.140155193897109e-05</v>
+        <v>1.140904654070775e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.131154653120388e-05</v>
+        <v>1.127800994138818e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.156348860063005e-05</v>
+        <v>1.157385018861214e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.13499806065296e-05</v>
+        <v>1.137869588038784e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>1.110362032911369e-05</v>
+        <v>1.108858738328883e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>1.127680901346297e-05</v>
+        <v>1.124880276081457e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.126043169304381e-05</v>
+        <v>1.123844243240794e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.110799661816704e-05</v>
+        <v>1.109758742980445e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.095704337169125e-05</v>
+        <v>1.095496732829232e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.078897950471375e-05</v>
+        <v>1.079161426675996e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.056829837214104e-05</v>
+        <v>1.057255992994189e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.026018848366973e-05</v>
+        <v>1.026356527475349e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>9.836931183570712e-06</v>
+        <v>9.837832200777273e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>9.27495443998434e-06</v>
+        <v>9.272912742954492e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>8.551789976882671e-06</v>
+        <v>8.547466926396264e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>7.685846536109737e-06</v>
+        <v>7.681096900404252e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>6.748631119975217e-06</v>
+        <v>6.746587646283545e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>5.815199132327374e-06</v>
+        <v>5.820278198546483e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>4.95159340098337e-06</v>
+        <v>4.968603399570462e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>4.164419879882108e-06</v>
+        <v>4.19268111501424e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>3.436315965467451e-06</v>
+        <v>3.467310188683944e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>2.765497944726514e-06</v>
+        <v>2.787569114186811e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>2.182473729722562e-06</v>
+        <v>2.190543104819877e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.720308835222697e-06</v>
+        <v>1.716845355591415e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>1.383732971387364e-06</v>
+        <v>1.374202193322571e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>1.151488460343561e-06</v>
+        <v>1.140178676550684e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>1.001355815088264e-06</v>
+        <v>9.91223576821427e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>9.11115548618625e-07</v>
+        <v>9.037856656806486e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>8.58548173931587e-07</v>
+        <v>8.543137146739876e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>8.222955398008856e-07</v>
+        <v>8.201801484906556e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>7.928322384191095e-07</v>
+        <v>7.91446230424329e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>7.692304350726678e-07</v>
+        <v>7.673928285142508e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>7.507558349346986e-07</v>
+        <v>7.475083532350359e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>7.366741431783493e-07</v>
+        <v>7.312812150613068e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>7.262510649767856e-07</v>
+        <v>7.181998244677072e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>7.187523055031533e-07</v>
+        <v>7.077525919288587e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>7.134435699306053e-07</v>
+        <v>6.994279279193901e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>7.095905634322929e-07</v>
+        <v>6.927142429139277e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>7.065555945421868e-07</v>
+        <v>6.87164392822979e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>7.04179544888931e-07</v>
+        <v>6.826504962765091e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>7.024512235023645e-07</v>
+        <v>6.791433563163628e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>7.013594827189951e-07</v>
+        <v>6.766138048748642e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>7.008931748753281e-07</v>
+        <v>6.750326738843334e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>7.010411523078695e-07</v>
+        <v>6.74370795277091e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>7.017922673531261e-07</v>
+        <v>6.74599000985459e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>7.031353723476036e-07</v>
+        <v>6.756881229417586e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>7.050593196278081e-07</v>
+        <v>6.776089930783106e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>7.07552961530247e-07</v>
+        <v>6.80332443327438e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>7.106051503914245e-07</v>
+        <v>6.838293056214595e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>7.142047385478478e-07</v>
+        <v>6.880704118926976e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>7.183405783360228e-07</v>
+        <v>6.930265940734732e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>7.230015220924581e-07</v>
+        <v>6.986686840961106e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>7.281764221536557e-07</v>
+        <v>7.049675138929259e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>7.338541308561236e-07</v>
+        <v>7.118939153962429e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>7.400235005363712e-07</v>
+        <v>7.194187205383863e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>7.46673383530899e-07</v>
+        <v>7.275127612516707e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>7.537926321762155e-07</v>
+        <v>7.361468694684205e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>7.613700988088274e-07</v>
+        <v>7.452918771209569e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>7.693946357652442e-07</v>
+        <v>7.549186161416056e-07</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>7.778550953819652e-07</v>
+        <v>7.649979184626797e-07</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>7.867403299955001e-07</v>
+        <v>7.755006160165047e-07</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>7.960391919423592e-07</v>
+        <v>7.863975407354063e-07</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>8.057405335590402e-07</v>
+        <v>7.976595245516961e-07</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>8.158332071820534e-07</v>
+        <v>8.092573993977005e-07</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>8.263060651479051e-07</v>
+        <v>8.211619972057406e-07</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>8.371479597931067e-07</v>
+        <v>8.333441499081432e-07</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>8.483477434541541e-07</v>
+        <v>8.457746894372186e-07</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>8.598942684675588e-07</v>
+        <v>8.584244477252939e-07</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>8.717763871698269e-07</v>
+        <v>8.712642567046901e-07</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>8.839829518974698e-07</v>
+        <v>8.842649483077341e-07</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>8.965028149869829e-07</v>
+        <v>8.973973544667358e-07</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>9.093248287748779e-07</v>
+        <v>9.106323071140225e-07</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>9.224378517881398e-07</v>
+        <v>9.239406465742778e-07</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>9.358528613418822e-07</v>
+        <v>9.373231993727609e-07</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>9.49652633113975e-07</v>
+        <v>9.508781282944522e-07</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>9.63934485481439e-07</v>
+        <v>9.647233115034478e-07</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>9.787957368212766e-07</v>
+        <v>9.789766271638256e-07</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>9.94333705510508e-07</v>
+        <v>9.937559534396814e-07</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.010645709926148e-06</v>
+        <v>1.009179168495106e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.02782906844522e-06</v>
+        <v>1.025364150494196e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.045981099444721e-06</v>
+        <v>1.042428777601027e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.065199121301676e-06</v>
+        <v>1.060490927979698e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.085580452393096e-06</v>
+        <v>1.079668479794297e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.107222411096009e-06</v>
+        <v>1.100079311208924e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.130222315787409e-06</v>
+        <v>1.121841300387652e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.154677484844319e-06</v>
+        <v>1.145072325494578e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.180685236643766e-06</v>
+        <v>1.169890264693805e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.208342889562742e-06</v>
+        <v>1.196412996149401e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.237747761978273e-06</v>
+        <v>1.224758398025466e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.268997172267373e-06</v>
+        <v>1.255044348486091e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.302188438807071e-06</v>
+        <v>1.28738872569538e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.337418879974354e-06</v>
+        <v>1.321909407817395e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.374785814146249e-06</v>
+        <v>1.358724273016239e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.41438655969979e-06</v>
+        <v>1.397951199456022e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.456318435011955e-06</v>
+        <v>1.439708065300798e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.500678758459778e-06</v>
+        <v>1.484112748714673e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.547564848420271e-06</v>
+        <v>1.531283127861739e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.597074023270473e-06</v>
+        <v>1.581337080906109e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.649303601387354e-06</v>
+        <v>1.634392486011826e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.704435852216985e-06</v>
+        <v>1.690644853827653e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.763106927638922e-06</v>
+        <v>1.750704475198168e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.826103943676736e-06</v>
+        <v>1.815319599462469e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.894214118019707e-06</v>
+        <v>1.885238568866813e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.968224668357087e-06</v>
+        <v>1.961209725657427e-06</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>2.048922812378167e-06</v>
+        <v>2.043981412080577e-06</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>2.137095767772128e-06</v>
+        <v>2.134301970382419e-06</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>2.233530752228256e-06</v>
+        <v>2.232919742809216e-06</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>2.339014983435856e-06</v>
+        <v>2.340583071607247e-06</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>2.454335679084084e-06</v>
+        <v>2.458040299022643e-06</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>2.58028005686224e-06</v>
+        <v>2.586039767301681e-06</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>2.717635334459576e-06</v>
+        <v>2.725329818690586e-06</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>2.867188729565415e-06</v>
+        <v>2.87665879543566e-06</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>3.029727459868876e-06</v>
+        <v>3.040775039782993e-06</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>3.206038743059276e-06</v>
+        <v>3.218426893978879e-06</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>3.396909796825957e-06</v>
+        <v>3.410362700269638e-06</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>3.603127838858001e-06</v>
+        <v>3.617330800901324e-06</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>3.826016243513649e-06</v>
+        <v>3.840621638981145e-06</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>4.072593762405901e-06</v>
+        <v>4.087284177638522e-06</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>4.353313503757554e-06</v>
+        <v>4.367839812190648e-06</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>4.678675934977348e-06</v>
+        <v>4.692857822196319e-06</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>5.059181523474384e-06</v>
+        <v>5.072907487214698e-06</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>5.505330736657648e-06</v>
+        <v>5.518558086804829e-06</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>6.027624041936381e-06</v>
+        <v>6.040378900526011e-06</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>6.636561906719097e-06</v>
+        <v>6.648939207936819e-06</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>7.342644798415003e-06</v>
+        <v>7.354808288596519e-06</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>8.156373184433476e-06</v>
+        <v>8.168555422064546e-06</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>9.088247532182772e-06</v>
+        <v>9.100749887899214e-06</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>1.014876830907222e-05</v>
+        <v>1.016196096565991e-05</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>1.134843598251137e-05</v>
+        <v>1.136275793490626e-05</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.269521578446605e-05</v>
+        <v>1.271116568098069e-05</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.416601722475613e-05</v>
+        <v>1.418404117539994e-05</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.571693533283269e-05</v>
+        <v>1.573735171506898e-05</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.730368151384138e-05</v>
+        <v>1.732667958670891e-05</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.888196717292563e-05</v>
+        <v>1.890760707703865e-05</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>2.040750371523109e-05</v>
+        <v>2.04357164727793e-05</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>2.183600254590265e-05</v>
+        <v>2.186659006065123e-05</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>2.312317507008575e-05</v>
+        <v>2.315581012737534e-05</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>2.422473269292414e-05</v>
+        <v>2.425895895967085e-05</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>2.509638681956334e-05</v>
+        <v>2.513161884425875e-05</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>2.569384885514845e-05</v>
+        <v>2.572937206785959e-05</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>2.597283020482382e-05</v>
+        <v>2.600780091719321e-05</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>2.58890422737347e-05</v>
+        <v>2.592248767898032e-05</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>2.540231442787255e-05</v>
+        <v>2.543314944578479e-05</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>2.453106044965749e-05</v>
+        <v>2.455832737295631e-05</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>2.333729020220592e-05</v>
+        <v>2.336033703137054e-05</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>2.188405154627074e-05</v>
+        <v>2.190253623558945e-05</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>2.023439234260437e-05</v>
+        <v>2.024828280017458e-05</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.845136045196155e-05</v>
+        <v>1.846093453968975e-05</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.659800373509478e-05</v>
+        <v>1.660384926869657e-05</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.473737005275729e-05</v>
+        <v>1.474038480175734e-05</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.293250726570148e-05</v>
+        <v>1.293389895343357e-05</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.124646323468223e-05</v>
+        <v>1.124774953828923e-05</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>9.742285820451922e-06</v>
+        <v>9.745294370885797e-06</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>8.483022883763262e-06</v>
+        <v>8.489891265785078e-06</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>7.531722285370625e-06</v>
+        <v>7.544898037550532e-06</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>6.9514318860266e-06</v>
+        <v>6.973672500743848e-06</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>6.785674947773045e-06</v>
+        <v>6.819725158025414e-06</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>6.804760689339589e-06</v>
+        <v>6.848836638383569e-06</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>6.577958313028515e-06</v>
+        <v>6.622424655604719e-06</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>5.670598180510202e-06</v>
+        <v>5.697908685252928e-06</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>4.036485205387296e-06</v>
+        <v>4.030665924083032e-06</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.649074033148371e-06</v>
+        <v>2.620576855502302e-06</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.073106970661949e-06</v>
+        <v>2.046247575646988e-06</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.932741363100389e-06</v>
+        <v>1.918523317402791e-06</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.820641673431422e-06</v>
+        <v>1.816205908611584e-06</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>1.646041843482488e-06</v>
+        <v>1.64587756790465e-06</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>1.430995963662301e-06</v>
+        <v>1.430936046870212e-06</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>1.197696477186513e-06</v>
+        <v>1.194922349494942e-06</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>9.680351960630011e-07</v>
+        <v>9.610604171590881e-07</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>7.579758653478163e-07</v>
+        <v>7.463221179047564e-07</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>5.780553436706641e-07</v>
+        <v>5.619558196497984e-07</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>4.386103397968887e-07</v>
+        <v>4.189988009905766e-07</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>3.499775624920158e-07</v>
+        <v>3.284883405236397e-07</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>3.224937205213691e-07</v>
+        <v>3.014617168453296e-07</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>3.664955226503447e-07</v>
+        <v>3.48956208552062e-07</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>4.923196776444156e-07</v>
+        <v>4.820090942403341e-07</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>7.103028942688688e-07</v>
+        <v>7.116576525064461e-07</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.047933014687046e-06</v>
+        <v>1.065279931595161e-06</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.731849121487221e-06</v>
+        <v>1.759995641101487e-06</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>3.000734889282559e-06</v>
+        <v>3.02296283826512e-06</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>4.518195364456701e-06</v>
+        <v>4.526301568794537e-06</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>5.778233639444661e-06</v>
+        <v>5.77853070631539e-06</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>6.613208724308228e-06</v>
+        <v>6.617794358443013e-06</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>7.286597925736683e-06</v>
+        <v>7.302230056136842e-06</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>8.089852743194864e-06</v>
+        <v>8.117227657805636e-06</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>9.314398177500926e-06</v>
+        <v>9.348150912756e-06</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>1.111175670953888e-05</v>
+        <v>1.114251769349996e-05</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>1.316697764372652e-05</v>
+        <v>1.318823010550411e-05</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.506800667002563e-05</v>
+        <v>1.507751411572867e-05</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>1.640278947839843e-05</v>
+        <v>1.640259569113427e-05</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>1.680442928221181e-05</v>
+        <v>1.680058319204208e-05</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>1.651331072173141e-05</v>
+        <v>1.651216643824226e-05</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.620461519468369e-05</v>
+        <v>1.621018293232303e-05</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.656297295658205e-05</v>
+        <v>1.657686146585454e-05</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.809381408246044e-05</v>
+        <v>1.81158373710159e-05</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>2.05332035852529e-05</v>
+        <v>2.056398577021747e-05</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>2.341077458064652e-05</v>
+        <v>2.345244880859606e-05</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>2.625615765996968e-05</v>
+        <v>2.631236611547659e-05</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>2.859898460037058e-05</v>
+        <v>2.867487849629452e-05</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>3.009770621244124e-05</v>
+        <v>3.019889104779332e-05</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>3.089401582904607e-05</v>
+        <v>3.102259470466634e-05</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>3.124290105403618e-05</v>
+        <v>3.139654704382512e-05</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>3.139934949126185e-05</v>
+        <v>3.157130564218035e-05</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>3.161012651273181e-05</v>
+        <v>3.178944748490378e-05</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>3.199291246712837e-05</v>
+        <v>3.216825816540934e-05</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>3.256282639096767e-05</v>
+        <v>3.272547610106621e-05</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>3.333215796270609e-05</v>
+        <v>3.347609350213178e-05</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>3.431319686079892e-05</v>
+        <v>3.443510257886244e-05</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>3.551823276370251e-05</v>
+        <v>3.561749554151552e-05</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>3.695955534987286e-05</v>
+        <v>3.703826460034805e-05</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>3.864945429776679e-05</v>
+        <v>3.871240196561787e-05</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>4.060000333072826e-05</v>
+        <v>4.065467329364154e-05</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>4.27951469494795e-05</v>
+        <v>4.285033446821829e-05</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>4.516308911648473e-05</v>
+        <v>4.522616515337774e-05</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>4.762547196542883e-05</v>
+        <v>4.770206113736047e-05</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>5.010393762999988e-05</v>
+        <v>5.019791820841021e-05</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>5.252012824388498e-05</v>
+        <v>5.263363215476974e-05</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>5.479568594077214e-05</v>
+        <v>5.492909876468277e-05</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>5.685225285434635e-05</v>
+        <v>5.700421382638997e-05</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>5.861147111829571e-05</v>
+        <v>5.877887312813513e-05</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>5.999509096223624e-05</v>
+        <v>6.017308397340589e-05</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>6.094721517525307e-05</v>
+        <v>6.112991328660489e-05</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>6.146154399583517e-05</v>
+        <v>6.164359431978412e-05</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>6.153844625213386e-05</v>
+        <v>6.171523985706268e-05</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>6.117829077230013e-05</v>
+        <v>6.134596268255942e-05</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>6.038144638448563e-05</v>
+        <v>6.053687558039382e-05</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>5.914828191684155e-05</v>
+        <v>5.928909133468489e-05</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>5.747916619751835e-05</v>
+        <v>5.760372272955089e-05</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>5.537446805466884e-05</v>
+        <v>5.548188254911249e-05</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>5.283802163382629e-05</v>
+        <v>5.29281316355587e-05</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>4.992636539645305e-05</v>
+        <v>4.999947264861682e-05</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>4.673705037784832e-05</v>
+        <v>4.679371655519004e-05</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>4.336870837115722e-05</v>
+        <v>4.340974969721982e-05</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>3.991997116952057e-05</v>
+        <v>3.99464584166433e-05</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>3.648947056607907e-05</v>
+        <v>3.65027290553975e-05</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>3.317583835397804e-05</v>
+        <v>3.317744795542412e-05</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>3.007770632635814e-05</v>
+        <v>3.006950145866015e-05</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>2.729370627636157e-05</v>
+        <v>2.72777759070441e-05</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>2.489792606061646e-05</v>
+        <v>2.487654720121724e-05</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>2.286323276008216e-05</v>
+        <v>2.28385961961409e-05</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>2.113640354107785e-05</v>
+        <v>2.111054313833714e-05</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.966421554321553e-05</v>
+        <v>1.963900824754844e-05</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.83934459061066e-05</v>
+        <v>1.837061174351672e-05</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.727087176936416e-05</v>
+        <v>1.725197384598558e-05</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.624327027259957e-05</v>
+        <v>1.62297147746969e-05</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.525741855542435e-05</v>
+        <v>1.525045474939268e-05</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.426028085921958e-05</v>
+        <v>1.426100042846519e-05</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.323391279199776e-05</v>
+        <v>1.324312546738236e-05</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.223652809811726e-05</v>
+        <v>1.225449174103852e-05</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.133632219927786e-05</v>
+        <v>1.136270742496866e-05</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.060149051717795e-05</v>
+        <v>1.063538069470637e-05</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.010022847351637e-05</v>
+        <v>1.01401197257857e-05</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>9.90073148999197e-06</v>
+        <v>9.944532693740703e-06</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.00711949883038e-05</v>
+        <v>1.011622777410564e-05</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.067981439015054e-05</v>
+        <v>1.07228131424144e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.179344004769262e-05</v>
+        <v>1.183056226337833e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.340357344393825e-05</v>
+        <v>1.343098001297488e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.538790475838004e-05</v>
+        <v>1.540263645287612e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.76146740851293e-05</v>
+        <v>1.761472433683534e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.995212151829782e-05</v>
+        <v>1.993643641860627e-05</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>2.226848715199415e-05</v>
+        <v>2.223696545193945e-05</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>2.443201108033003e-05</v>
+        <v>2.438550419058856e-05</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>2.631093339741693e-05</v>
+        <v>2.625124538830706e-05</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>2.777349419736383e-05</v>
+        <v>2.770338179884586e-05</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>2.871287527676228e-05</v>
+        <v>2.863587186919332e-05</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>2.91527932980207e-05</v>
+        <v>2.907228775036859e-05</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>2.915952527468609e-05</v>
+        <v>2.907846160355289e-05</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>2.879937164268528e-05</v>
+        <v>2.872024884701962e-05</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>2.81386328379452e-05</v>
+        <v>2.806350489904232e-05</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>2.72436092963927e-05</v>
+        <v>2.717408517789437e-05</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>2.618060145395406e-05</v>
+        <v>2.611784510184867e-05</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>2.501590974655712e-05</v>
+        <v>2.496064008917961e-05</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>2.381583368405041e-05</v>
+        <v>2.376832463801178e-05</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>2.26342602050535e-05</v>
+        <v>2.259442015038207e-05</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>2.148154630087777e-05</v>
+        <v>2.144919679432094e-05</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>2.035851198575498e-05</v>
+        <v>2.033344882408243e-05</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.926597727391746e-05</v>
+        <v>1.924797049392111e-05</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.820476217959704e-05</v>
+        <v>1.819355605809113e-05</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.7175686717027e-05</v>
+        <v>1.7170999770848e-05</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.617957090043914e-05</v>
+        <v>1.618109588644582e-05</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>1.52172347440658e-05</v>
+        <v>1.522463865913919e-05</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>1.428949826213887e-05</v>
+        <v>1.430242234318228e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.33971814688915e-05</v>
+        <v>1.34152411928305e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.254110437855556e-05</v>
+        <v>1.256388946233802e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.172208700536303e-05</v>
+        <v>1.174916140595906e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.094094936354694e-05</v>
+        <v>1.097185127794894e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.019851146733923e-05</v>
+        <v>1.023275333256187e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>9.495593330971909e-06</v>
+        <v>9.532661824052133e-06</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>8.833014968677915e-06</v>
+        <v>8.872371006674937e-06</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>8.211596394689232e-06</v>
+        <v>8.252675134684542e-06</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>7.631920246561959e-06</v>
+        <v>7.674137070040974e-06</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>7.092983429869922e-06</v>
+        <v>7.135773919797881e-06</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>6.593133129403331e-06</v>
+        <v>6.635969450002807e-06</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>6.130714567060487e-06</v>
+        <v>6.17310551329684e-06</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>5.704072964739944e-06</v>
+        <v>5.745563962321319e-06</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>5.311553544340088e-06</v>
+        <v>5.351726649717415e-06</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>4.951501527759825e-06</v>
+        <v>4.98997542812682e-06</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>4.622262136897523e-06</v>
+        <v>4.658692150190685e-06</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>4.322180593651609e-06</v>
+        <v>4.356258668550221e-06</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>4.049602119920905e-06</v>
+        <v>4.081056835847038e-06</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>3.802871937603823e-06</v>
+        <v>3.831468504722332e-06</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>3.580335268598822e-06</v>
+        <v>3.605875527817345e-06</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>3.380337334804656e-06</v>
+        <v>3.402659757773619e-06</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>3.201223358119772e-06</v>
+        <v>3.220203047232384e-06</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>3.041338560442657e-06</v>
+        <v>3.056887248834911e-06</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.899028163672068e-06</v>
+        <v>2.911094215222746e-06</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.7726373897063e-06</v>
+        <v>2.781205799036964e-06</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.660511460444043e-06</v>
+        <v>2.665603852919041e-06</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.560995597783932e-06</v>
+        <v>2.562670229510401e-06</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.472435023624339e-06</v>
+        <v>2.470786781452195e-06</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>2.393174959863979e-06</v>
+        <v>2.38833536138593e-06</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>2.321560628401263e-06</v>
+        <v>2.313697821952794e-06</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.255937251134816e-06</v>
+        <v>2.245256015794202e-06</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.194650049963245e-06</v>
+        <v>2.181391795551545e-06</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.13604424678499e-06</v>
+        <v>2.120487013866048e-06</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.078465063498663e-06</v>
+        <v>2.060923523379105e-06</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.020350734086096e-06</v>
+        <v>2.001173150556529e-06</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.96122395108912e-06</v>
+        <v>1.940756756362427e-06</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.901308576928228e-06</v>
+        <v>1.879873467781421e-06</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.840840228632187e-06</v>
+        <v>1.818733782439716e-06</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.780054523229598e-06</v>
+        <v>1.757548197963345e-06</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.719187077749231e-06</v>
+        <v>1.696527211978512e-06</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.65847350921985e-06</v>
+        <v>1.635881322111417e-06</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.598149434670059e-06</v>
+        <v>1.575821025988098e-06</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.538450471128626e-06</v>
+        <v>1.516556821234756e-06</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.479612235624314e-06</v>
+        <v>1.45829920547759e-06</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.421870345185731e-06</v>
+        <v>1.401258676342642e-06</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.365460416841692e-06</v>
+        <v>1.345645731456161e-06</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.310618067620807e-06</v>
+        <v>1.291670868444193e-06</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.25757891455184e-06</v>
+        <v>1.239544584932935e-06</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.20657857466355e-06</v>
+        <v>1.189477378548579e-06</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.157852664984554e-06</v>
+        <v>1.14167974691718e-06</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.111636802543614e-06</v>
+        <v>1.096362187664933e-06</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.068161688710168e-06</v>
+        <v>1.05373071608908e-06</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.027515996386735e-06</v>
+        <v>1.013861839262805e-06</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>9.896281273722046e-07</v>
+        <v>9.766859215426396e-07</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>9.544179025696333e-07</v>
+        <v>9.421255028214418e-07</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>9.218051428819837e-07</v>
+        <v>9.101031229919777e-07</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>8.917096692123408e-07</v>
+        <v>8.805413219471322e-07</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>8.640513024636776e-07</v>
+        <v>8.53362639579681e-07</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>8.387498635390479e-07</v>
+        <v>8.284896157824796e-07</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>8.157251733414979e-07</v>
+        <v>8.058447904483752e-07</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>7.948970527740126e-07</v>
+        <v>7.853507034701554e-07</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>7.761853227396394e-07</v>
+        <v>7.669298947406692e-07</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>7.595098041414193e-07</v>
+        <v>7.505049041527587e-07</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>7.447903178823484e-07</v>
+        <v>7.359982715992222e-07</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>7.319466848654689e-07</v>
+        <v>7.233325369729039e-07</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>7.208987259938161e-07</v>
+        <v>7.124302401666401e-07</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>7.115662621703967e-07</v>
+        <v>7.0321392107324e-07</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>7.038691142982472e-07</v>
+        <v>6.956061195855414e-07</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>6.977271032803994e-07</v>
+        <v>6.895293755963777e-07</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>6.93060050019868e-07</v>
+        <v>6.849062289985656e-07</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>6.897877754196881e-07</v>
+        <v>6.816592196849419e-07</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>6.8783010038288e-07</v>
+        <v>6.797108875483287e-07</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>6.871068458124734e-07</v>
+        <v>6.789837724815573e-07</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>6.87537832611494e-07</v>
+        <v>6.794004143774552e-07</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>6.890428816829688e-07</v>
+        <v>6.808833531288512e-07</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>6.915418139299241e-07</v>
+        <v>6.83355128628573e-07</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>6.949544502553826e-07</v>
+        <v>6.867382807694453e-07</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>6.992006115623771e-07</v>
+        <v>6.909553494443026e-07</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>7.042001187539308e-07</v>
+        <v>6.959288745459699e-07</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>7.098727927330648e-07</v>
+        <v>7.015813959672698e-07</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>7.161384544028156e-07</v>
+        <v>7.078354536010411e-07</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>7.229169246662046e-07</v>
+        <v>7.146135873401061e-07</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>7.301280244262511e-07</v>
+        <v>7.218383370772865e-07</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>7.376915745859951e-07</v>
+        <v>7.294322427054237e-07</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>7.45527396048449e-07</v>
+        <v>7.373178441173319e-07</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>7.535553097166528e-07</v>
+        <v>7.454176812058531e-07</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>7.617046934441918e-07</v>
+        <v>7.536637614481193e-07</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>7.700509347359481e-07</v>
+        <v>7.62132736648387e-07</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>7.787833789046208e-07</v>
+        <v>7.710141508086929e-07</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>7.880943941539493e-07</v>
+        <v>7.805005425553095e-07</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>7.981763486876704e-07</v>
+        <v>7.907844505145078e-07</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>8.092216107095493e-07</v>
+        <v>8.020584133125858e-07</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>8.21422548423324e-07</v>
+        <v>8.145149695758154e-07</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>8.349715300327284e-07</v>
+        <v>8.283466579304635e-07</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>8.500609237415337e-07</v>
+        <v>8.437460170028352e-07</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>8.668830977534591e-07</v>
+        <v>8.609055854191829e-07</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>8.856304202722811e-07</v>
+        <v>8.800179018058169e-07</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>9.064952595017324e-07</v>
+        <v>9.012755047890031e-07</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>9.29669983645538e-07</v>
+        <v>9.248709329949995e-07</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>9.55346960907486e-07</v>
+        <v>9.509967250501288e-07</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>9.837185594913036e-07</v>
+        <v>9.798454195806511e-07</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>1.014977147600708e-06</v>
+        <v>1.011609555212816e-06</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>1.049315093439501e-06</v>
+        <v>1.046481670572962e-06</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>1.086924765211405e-06</v>
+        <v>1.084654304287341e-06</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>1.127998531120126e-06</v>
+        <v>1.126319994982194e-06</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>1.172728759369485e-06</v>
+        <v>1.171671281283877e-06</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>1.221307818163195e-06</v>
+        <v>1.220900701818634e-06</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>1.273928075704952e-06</v>
+        <v>1.274200795212696e-06</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>1.330822312093864e-06</v>
+        <v>1.331804062704881e-06</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.392657900682646e-06</v>
+        <v>1.394372767158626e-06</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.460366742662647e-06</v>
+        <v>1.462830758364331e-06</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.534884487470898e-06</v>
+        <v>1.538105592686632e-06</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.617146784544178e-06</v>
+        <v>1.621124826489904e-06</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.708089283319546e-06</v>
+        <v>1.712816016138811e-06</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.808647633233846e-06</v>
+        <v>1.814106717997794e-06</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.919757483723883e-06</v>
+        <v>1.92592448843126e-06</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>2.04235448422677e-06</v>
+        <v>2.049196883803925e-06</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>2.177374284179326e-06</v>
+        <v>2.184851460480206e-06</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>2.325752533018322e-06</v>
+        <v>2.333815774824474e-06</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>2.488424880180938e-06</v>
+        <v>2.497017383201513e-06</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>2.666326975103959e-06</v>
+        <v>2.675383841975706e-06</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.860401165203036e-06</v>
+        <v>2.869847894226258e-06</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>3.071635838387691e-06</v>
+        <v>3.081377935416168e-06</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>3.301038737241836e-06</v>
+        <v>3.310957348690182e-06</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>3.549617671328194e-06</v>
+        <v>3.559569569059619e-06</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>3.818380450208878e-06</v>
+        <v>3.828198031535184e-06</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>4.108334883445924e-06</v>
+        <v>4.117826171127513e-06</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>4.420488780602166e-06</v>
+        <v>4.429437422848029e-06</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>4.75584995123966e-06</v>
+        <v>4.764015221707387e-06</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>5.115426204920383e-06</v>
+        <v>5.122543002716153e-06</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>5.498875168407634e-06</v>
+        <v>5.504664712486763e-06</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>5.899688554195883e-06</v>
+        <v>5.903907221754829e-06</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>6.30959895067844e-06</v>
+        <v>6.312052210659015e-06</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>6.720338813505312e-06</v>
+        <v>6.720881227646118e-06</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>7.123640598325038e-06</v>
+        <v>7.122175821161464e-06</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>7.511236760787614e-06</v>
+        <v>7.507717539651835e-06</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>7.874859756541935e-06</v>
+        <v>7.869287931562912e-06</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>8.206242041236982e-06</v>
+        <v>8.198668545340468e-06</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>8.497116070522621e-06</v>
+        <v>8.487640929431151e-06</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>8.739214300047799e-06</v>
+        <v>8.727986632280702e-06</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>8.924269185461644e-06</v>
+        <v>8.911487202335028e-06</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>9.044013182413755e-06</v>
+        <v>9.029924188040518e-06</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>9.090178746553198e-06</v>
+        <v>9.075079137843031e-06</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>9.054498333529317e-06</v>
+        <v>9.038733600188692e-06</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>8.928704398991306e-06</v>
+        <v>8.912669123523486e-06</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>8.704529398588433e-06</v>
+        <v>8.688667256293462e-06</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>8.373705787970298e-06</v>
+        <v>8.358509546945013e-06</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>7.930806681499115e-06</v>
+        <v>7.916802946149592e-06</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>7.389449176920275e-06</v>
+        <v>7.377096107355577e-06</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>6.771078371875048e-06</v>
+        <v>6.76072364162233e-06</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>6.097163428859515e-06</v>
+        <v>6.08904409561753e-06</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>5.389173510372073e-06</v>
+        <v>5.383416016011165e-06</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>4.668577778908645e-06</v>
+        <v>4.665197949470757e-06</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>3.956845396967074e-06</v>
+        <v>3.955748442665743e-06</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>3.275445527045174e-06</v>
+        <v>3.276426042265528e-06</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>2.645847331638917e-06</v>
+        <v>2.648589294937685e-06</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>2.089519973246154e-06</v>
+        <v>2.093596747351656e-06</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.627915984858701e-06</v>
+        <v>1.632790413815135e-06</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.273276927649669e-06</v>
+        <v>1.278355144383973e-06</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.013353542997261e-06</v>
+        <v>1.018128036896542e-06</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>8.318711820547125e-07</v>
+        <v>8.359443140152513e-07</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>7.125551959748154e-07</v>
+        <v>7.156391984020646e-07</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>6.391309359109212e-07</v>
+        <v>6.410479127195078e-07</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>5.953237530160148e-07</v>
+        <v>5.960056796297371e-07</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>5.649127443072601e-07</v>
+        <v>5.644010892183722e-07</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>5.370164822324068e-07</v>
+        <v>5.354246101566105e-07</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>5.105500670466008e-07</v>
+        <v>5.079942586379238e-07</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>4.854780407594379e-07</v>
+        <v>4.820701031766687e-07</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>4.617649453805093e-07</v>
+        <v>4.576122122871965e-07</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>4.393753229193425e-07</v>
+        <v>4.345806544837931e-07</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>4.182737153855299e-07</v>
+        <v>4.129354982808112e-07</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>3.984246647886593e-07</v>
+        <v>3.926368121925984e-07</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>3.797927131382649e-07</v>
+        <v>3.736446647334482e-07</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>3.623424024439357e-07</v>
+        <v>3.559191244177092e-07</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>3.460382747152561e-07</v>
+        <v>3.394202597597258e-07</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>3.308448719617672e-07</v>
+        <v>3.241081392737983e-07</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>3.167267361930542e-07</v>
+        <v>3.099428314742718e-07</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>3.036484094186992e-07</v>
+        <v>2.968844048754878e-07</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>2.915744336482486e-07</v>
+        <v>2.848929279917526e-07</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>2.804693508912948e-07</v>
+        <v>2.739284693374179e-07</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.702977031573878e-07</v>
+        <v>2.639510974267938e-07</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.610240324561087e-07</v>
+        <v>2.549208807742206e-07</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.526128807970348e-07</v>
+        <v>2.467978878940353e-07</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.450287901897213e-07</v>
+        <v>2.39542187300553e-07</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.382363026437465e-07</v>
+        <v>2.331138475081116e-07</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.321999601686859e-07</v>
+        <v>2.274729370310455e-07</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.26884304774099e-07</v>
+        <v>2.225795243836748e-07</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.222538784695617e-07</v>
+        <v>2.183936780803347e-07</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.182732232646477e-07</v>
+        <v>2.148754666353581e-07</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.149068811689202e-07</v>
+        <v>2.119849585630685e-07</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.121193941919556e-07</v>
+        <v>2.096822223778012e-07</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.098753043433193e-07</v>
+        <v>2.079273265938822e-07</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.081391536325842e-07</v>
+        <v>2.066803397256434e-07</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.068754840693217e-07</v>
+        <v>2.059013302874155e-07</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.060488376630999e-07</v>
+        <v>2.05550366793527e-07</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.056237564234904e-07</v>
+        <v>2.055875177583088e-07</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.055647823600634e-07</v>
+        <v>2.059728516960902e-07</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.058364574823892e-07</v>
+        <v>2.06666437121202e-07</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.064033238000382e-07</v>
+        <v>2.076283425479739e-07</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.072299233225799e-07</v>
+        <v>2.088186364907347e-07</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.082807980595862e-07</v>
+        <v>2.101973874638165e-07</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.095204900206256e-07</v>
+        <v>2.117246639815467e-07</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.109135412152705e-07</v>
+        <v>2.133605345582582e-07</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.124244936530904e-07</v>
+        <v>2.150650677082796e-07</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.140179033074532e-07</v>
+        <v>2.167983477175709e-07</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.15672933630603e-07</v>
+        <v>2.185369575178497e-07</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.174110112058733e-07</v>
+        <v>2.203052147960492e-07</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.192611616151576e-07</v>
+        <v>2.221360200470207e-07</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.212524104403548e-07</v>
+        <v>2.240622737656207e-07</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.234137832633587e-07</v>
+        <v>2.261168764467006e-07</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.257743056660623e-07</v>
+        <v>2.283327285851114e-07</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.283630032303655e-07</v>
+        <v>2.307427306757103e-07</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.312089015381615e-07</v>
+        <v>2.333797832133482e-07</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.343410261713428e-07</v>
+        <v>2.362767866928757e-07</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.377884027118105e-07</v>
+        <v>2.394666416091511e-07</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.415800567414571e-07</v>
+        <v>2.429822484570248e-07</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.457450138421744e-07</v>
+        <v>2.468565077313463e-07</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.503122995958651e-07</v>
+        <v>2.511223199269757e-07</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.553109395844164e-07</v>
+        <v>2.558125855387584e-07</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.607699593897327e-07</v>
+        <v>2.609602050615558e-07</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.667183845937049e-07</v>
+        <v>2.66598078990217e-07</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.731852407782226e-07</v>
+        <v>2.727591078195894e-07</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.801995535251928e-07</v>
+        <v>2.79476192044537e-07</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.877903484165053e-07</v>
+        <v>2.867822321599078e-07</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.959866510340476e-07</v>
+        <v>2.94710128660547e-07</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>3.048174869597302e-07</v>
+        <v>3.032927820413225e-07</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>3.143118817754413e-07</v>
+        <v>3.125630927970803e-07</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>3.244988610630668e-07</v>
+        <v>3.225539614226641e-07</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>3.354074504045204e-07</v>
+        <v>3.33298288412945e-07</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>3.470666753816779e-07</v>
+        <v>3.448289742627567e-07</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>3.595055615764556e-07</v>
+        <v>3.571789194669732e-07</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>3.727531345707388e-07</v>
+        <v>3.703810245204371e-07</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>3.868384199464098e-07</v>
+        <v>3.84468189917989e-07</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>4.017904432853893e-07</v>
+        <v>3.994733161545068e-07</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>4.176382301695607e-07</v>
+        <v>4.154293037248317e-07</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>4.344108061808035e-07</v>
+        <v>4.323690531238009e-07</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>4.521371969010435e-07</v>
+        <v>4.50325464846298e-07</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>4.708464279121615e-07</v>
+        <v>4.693314393871613e-07</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>4.905675247960344e-07</v>
+        <v>4.894198772412252e-07</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>5.113295131345934e-07</v>
+        <v>5.106236789033792e-07</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>5.331614185096963e-07</v>
+        <v>5.329757448684378e-07</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>5.560922665032781e-07</v>
+        <v>5.565089756312948e-07</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>5.801510805394079e-07</v>
+        <v>5.812562693689353e-07</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>6.053049533211013e-07</v>
+        <v>6.071840002281421e-07</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>6.312970881604767e-07</v>
+        <v>6.340180474228406e-07</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>6.578201110632475e-07</v>
+        <v>6.614299616172194e-07</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>6.845666480350324e-07</v>
+        <v>6.890912934753695e-07</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>7.112293250815458e-07</v>
+        <v>7.166735936614812e-07</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>7.375007682084296e-07</v>
+        <v>7.438484128396689e-07</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>7.630736034213273e-07</v>
+        <v>7.702873016740496e-07</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>7.876404567259511e-07</v>
+        <v>7.95661810828811e-07</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>8.108939541279435e-07</v>
+        <v>8.196434909680687e-07</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>8.325267216329523e-07</v>
+        <v>8.419038927559437e-07</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>8.522313852466819e-07</v>
+        <v>8.621145668566159e-07</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>8.697005709747785e-07</v>
+        <v>8.799470639342042e-07</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>8.846269048228962e-07</v>
+        <v>8.950729346528369e-07</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>8.967030127967274e-07</v>
+        <v>9.071637296766805e-07</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>9.056215209019175e-07</v>
+        <v>9.158909996698546e-07</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>9.110750551441486e-07</v>
+        <v>9.209262952965143e-07</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>9.127562415290769e-07</v>
+        <v>9.219411672207904e-07</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>9.103865312131654e-07</v>
+        <v>9.186383587705873e-07</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>9.041934475621965e-07</v>
+        <v>9.112682510078468e-07</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>8.948362593927444e-07</v>
+        <v>9.005484312468991e-07</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>8.829880776454471e-07</v>
+        <v>8.872114658294087e-07</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>8.693220132609093e-07</v>
+        <v>8.719899210970023e-07</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>8.54511177179766e-07</v>
+        <v>8.556163633913416e-07</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>8.392286803426582e-07</v>
+        <v>8.388233590540932e-07</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>8.241476336901836e-07</v>
+        <v>8.223434744268776e-07</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>8.099411481629947e-07</v>
+        <v>8.069092758513744e-07</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>7.97282334701691e-07</v>
+        <v>7.932533296692061e-07</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>7.86844304246913e-07</v>
+        <v>7.821082022220388e-07</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>7.793001677392914e-07</v>
+        <v>7.742064598515289e-07</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>7.753230361194386e-07</v>
+        <v>7.702806688993128e-07</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>7.755860203279891e-07</v>
+        <v>7.710633957070506e-07</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>7.807589995123218e-07</v>
+        <v>7.772837812400051e-07</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>7.909570793191117e-07</v>
+        <v>7.890829622489663e-07</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>8.051162032637202e-07</v>
+        <v>8.053522820070573e-07</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>8.220214719467128e-07</v>
+        <v>8.248232054415325e-07</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>8.404579859687021e-07</v>
+        <v>8.462271974797e-07</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>8.592108459302386e-07</v>
+        <v>8.682957230487967e-07</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>8.770651524319381e-07</v>
+        <v>8.897602470761356e-07</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>8.928060060743655e-07</v>
+        <v>9.0935223448897e-07</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>9.052185074581016e-07</v>
+        <v>9.258031502145721e-07</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>9.131293446935887e-07</v>
+        <v>9.37881376512785e-07</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>9.166745199819703e-07</v>
+        <v>9.455175769123553e-07</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>9.175317599891022e-07</v>
+        <v>9.50011007459157e-07</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>9.174672503448723e-07</v>
+        <v>9.527394494343068e-07</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>9.182471766791667e-07</v>
+        <v>9.550806841189092e-07</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>9.216377246218681e-07</v>
+        <v>9.584124927940701e-07</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>9.294050798028702e-07</v>
+        <v>9.641126567409048e-07</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>9.431325570849799e-07</v>
+        <v>9.73436789870507e-07</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>9.613130974980251e-07</v>
+        <v>9.855759724915622e-07</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>9.798654765858589e-07</v>
+        <v>9.980016058605819e-07</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>9.946299230717975e-07</v>
+        <v>1.008132617792635e-06</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.001446665679171e-06</v>
+        <v>1.013387936102799e-06</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>9.972962694680279e-07</v>
+        <v>1.011839923242368e-06</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>9.842616381567009e-07</v>
+        <v>1.004484679771867e-06</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>9.658521739692744e-07</v>
+        <v>9.931357173104288e-07</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>9.455773456244248e-07</v>
+        <v>9.79606585579866e-07</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>9.263812566698354e-07</v>
+        <v>9.654309661545522e-07</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>9.086875818725406e-07</v>
+        <v>9.508948731369406e-07</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>8.922179006633242e-07</v>
+        <v>9.359367680543383e-07</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>8.766937627421483e-07</v>
+        <v>9.204950977166474e-07</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>8.618367178089315e-07</v>
+        <v>9.045083089337271e-07</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>8.473683155636366e-07</v>
+        <v>8.879148485154794e-07</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>8.330101057062227e-07</v>
+        <v>8.706531632718067e-07</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>8.184836379366128e-07</v>
+        <v>8.526617000125666e-07</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>8.035104619547804e-07</v>
+        <v>8.338789055476786e-07</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>7.878121274606462e-07</v>
+        <v>8.142432266869968e-07</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>7.711101841541712e-07</v>
+        <v>7.936931102404252e-07</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>7.531261817353024e-07</v>
+        <v>7.721670030178515e-07</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>7.335816699040059e-07</v>
+        <v>7.496033518291841e-07</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>7.122140991112276e-07</v>
+        <v>7.259498635743568e-07</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>6.891448926613614e-07</v>
+        <v>7.01377858692498e-07</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>6.64889871164343e-07</v>
+        <v>6.76288342030157e-07</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>6.399828413406309e-07</v>
+        <v>6.510927929708327e-07</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>6.149576099106861e-07</v>
+        <v>6.262026908980252e-07</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>5.903479835949016e-07</v>
+        <v>6.020295151951662e-07</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>5.666877691137384e-07</v>
+        <v>5.789847452457557e-07</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>5.445107731876541e-07</v>
+        <v>5.5747986043329e-07</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>5.243508025370469e-07</v>
+        <v>5.379263401412071e-07</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>5.067416638823759e-07</v>
+        <v>5.207356637530046e-07</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>4.922171639440913e-07</v>
+        <v>5.063193106521714e-07</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>4.813111094426049e-07</v>
+        <v>4.950887602221588e-07</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>4.745573070983738e-07</v>
+        <v>4.874554918464635e-07</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>4.72434926487524e-07</v>
+        <v>4.8382613781076e-07</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>4.751136190931058e-07</v>
+        <v>4.84579871709706e-07</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>4.826541701163054e-07</v>
+        <v>4.90086209138412e-07</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>4.951172444397281e-07</v>
+        <v>5.007146550180214e-07</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>5.125635069459609e-07</v>
+        <v>5.168347142696647e-07</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>5.350536225175734e-07</v>
+        <v>5.388158918144532e-07</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>5.626482560371977e-07</v>
+        <v>5.670276925735595e-07</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>5.954080723874077e-07</v>
+        <v>6.018396214681001e-07</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>6.333937700663462e-07</v>
+        <v>6.436212162252311e-07</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>6.827343368315477e-07</v>
+        <v>6.986641684085148e-07</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>7.725555393363943e-07</v>
+        <v>7.957031442884011e-07</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>9.370451659214428e-07</v>
+        <v>9.6840145742179e-07</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.185528188628424e-06</v>
+        <v>1.225416919513273e-06</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.487731414749664e-06</v>
+        <v>1.535581927073618e-06</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.809848285002509e-06</v>
+        <v>1.864175232353301e-06</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>2.118072240103481e-06</v>
+        <v>2.176475587601949e-06</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>2.378596720769154e-06</v>
+        <v>2.437761745069251e-06</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>2.558030562031133e-06</v>
+        <v>2.613749124878736e-06</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>2.649467999596131e-06</v>
+        <v>2.697994942727579e-06</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>2.687979748410396e-06</v>
+        <v>2.728182631930853e-06</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>2.71235761281675e-06</v>
+        <v>2.74590728308081e-06</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>2.761393397157855e-06</v>
+        <v>2.792763986769567e-06</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.869858495068006e-06</v>
+        <v>2.905961985651431e-06</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>3.033491438267059e-06</v>
+        <v>3.080129749083899e-06</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>3.226081333768567e-06</v>
+        <v>3.285951217850982e-06</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>3.421172682644973e-06</v>
+        <v>3.493843493217007e-06</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>3.592309985969262e-06</v>
+        <v>3.67422367644688e-06</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>3.714684958076018e-06</v>
+        <v>3.799422829408842e-06</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>3.78201881667844e-06</v>
+        <v>3.863302158422749e-06</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>3.799699629741344e-06</v>
+        <v>3.873279032976004e-06</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>3.773297387649208e-06</v>
+        <v>3.836982205230121e-06</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>3.708382080786422e-06</v>
+        <v>3.762040427346497e-06</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>3.610524577511179e-06</v>
+        <v>3.656060604855539e-06</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>3.485336012648877e-06</v>
+        <v>3.525647692316126e-06</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>3.338483683657265e-06</v>
+        <v>3.376009148840026e-06</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>3.175639055949565e-06</v>
+        <v>3.212248722262875e-06</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>3.002473594939056e-06</v>
+        <v>3.039470160420354e-06</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.824658766038539e-06</v>
+        <v>2.862777211147676e-06</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.647866034661445e-06</v>
+        <v>2.687273622280674e-06</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.477696532978268e-06</v>
+        <v>2.518000734133209e-06</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>2.317295837322562e-06</v>
+        <v>2.357821043156791e-06</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>2.166772115992122e-06</v>
+        <v>2.206901917572995e-06</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>2.026045181490788e-06</v>
+        <v>2.065243595269994e-06</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.89503484632281e-06</v>
+        <v>1.932846314136372e-06</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.773660922992404e-06</v>
+        <v>1.80971031206068e-06</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.661843224003462e-06</v>
+        <v>1.695835826931139e-06</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.559501561860209e-06</v>
+        <v>1.59122309663631e-06</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.466555749066835e-06</v>
+        <v>1.495872359064717e-06</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.382925598127284e-06</v>
+        <v>1.409783852104633e-06</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.308530921545818e-06</v>
+        <v>1.332957813644657e-06</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.243291531826412e-06</v>
+        <v>1.265394481573093e-06</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.18712724147325e-06</v>
+        <v>1.20709409377846e-06</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.139923449736522e-06</v>
+        <v>1.158020576624271e-06</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.100632061833618e-06</v>
+        <v>1.117152869935862e-06</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.06718504774362e-06</v>
+        <v>1.082393717607755e-06</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.037462633435193e-06</v>
+        <v>1.051591265270424e-06</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.009345044876889e-06</v>
+        <v>1.022593658554218e-06</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>9.807125080373362e-07</v>
+        <v>9.932490430895735e-07</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>9.494452488851683e-07</v>
+        <v>9.614055645069254e-07</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>9.13423493388932e-07</v>
+        <v>9.24911368436624e-07</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>8.705291544445832e-07</v>
+        <v>8.816162951167835e-07</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>8.199853527668487e-07</v>
+        <v>8.307174989447326e-07</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>7.647662567132736e-07</v>
+        <v>7.751802599805953e-07</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>7.08496775367841e-07</v>
+        <v>7.186235617467309e-07</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>6.548018178145372e-07</v>
+        <v>6.646663877655013e-07</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>6.073062931372022e-07</v>
+        <v>6.169277215591223e-07</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>5.69635110419855e-07</v>
+        <v>5.790265466499887e-07</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>5.454131787463648e-07</v>
+        <v>5.545818465603453e-07</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>5.382654072007108e-07</v>
+        <v>5.472126048125471e-07</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>5.518167048668103e-07</v>
+        <v>5.605378049288873e-07</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>5.896919808286251e-07</v>
+        <v>5.981764304317031e-07</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>6.555161441700928e-07</v>
+        <v>6.637474648433081e-07</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>7.529141039750505e-07</v>
+        <v>7.608698916859156e-07</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>8.855107693276112e-07</v>
+        <v>8.931626944820134e-07</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.058918370104325e-06</v>
+        <v>1.066268265673672e-06</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.303616647748071e-06</v>
+        <v>1.311148083027518e-06</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.667008763241342e-06</v>
+        <v>1.675994359366383e-06</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>2.196822235974099e-06</v>
+        <v>2.209329556005108e-06</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>2.940784585337973e-06</v>
+        <v>2.95967613426021e-06</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>3.946623330723275e-06</v>
+        <v>3.975556555446886e-06</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>5.212284594642111e-06</v>
+        <v>5.254869679059691e-06</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>6.280634511032359e-06</v>
+        <v>6.33273530287888e-06</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>6.450649289900381e-06</v>
+        <v>6.496257154999465e-06</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>5.797918832735064e-06</v>
+        <v>5.821288567965178e-06</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>6.060734207009363e-06</v>
+        <v>6.074058310535114e-06</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>6.912160619557254e-06</v>
+        <v>6.926006183168564e-06</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>7.766298105391221e-06</v>
+        <v>7.785786583261415e-06</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>8.089910369249769e-06</v>
+        <v>8.11497436245344e-06</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>7.904914077894821e-06</v>
+        <v>7.933004222979005e-06</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>7.566032827046256e-06</v>
+        <v>7.593740540272162e-06</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>7.429109269355636e-06</v>
+        <v>7.452215115004289e-06</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>7.595370032078783e-06</v>
+        <v>7.610823117698894e-06</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>7.750727730624483e-06</v>
+        <v>7.759801880836647e-06</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>7.745496346998922e-06</v>
+        <v>7.751262298804917e-06</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>7.603103403089911e-06</v>
+        <v>7.608028895863366e-06</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>7.352398111254828e-06</v>
+        <v>7.358272724687244e-06</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>7.022229683851391e-06</v>
+        <v>7.03016483795216e-06</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>6.641447333237615e-06</v>
+        <v>6.651876288333999e-06</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>6.238900271770442e-06</v>
+        <v>6.25157812850759e-06</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>5.842358551297331e-06</v>
+        <v>5.856399807283797e-06</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>5.464114118489671e-06</v>
+        <v>5.478531333031562e-06</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>5.10487715545667e-06</v>
+        <v>5.118984014923681e-06</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>4.765078553262794e-06</v>
+        <v>4.778499590897916e-06</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>4.445149202972447e-06</v>
+        <v>4.457819798891963e-06</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>4.145519995649167e-06</v>
+        <v>4.157686376842659e-06</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>3.866621822357618e-06</v>
+        <v>3.878841062687959e-06</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>3.608885574161413e-06</v>
+        <v>3.62202559436477e-06</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>3.372745662263408e-06</v>
+        <v>3.387984247752419e-06</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>3.159634622395092e-06</v>
+        <v>3.178180924344402e-06</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>2.973350552855284e-06</v>
+        <v>2.99578504369981e-06</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>2.818034275267395e-06</v>
+        <v>2.844213121282141e-06</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.697826611254728e-06</v>
+        <v>2.726881672554783e-06</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.616419211185678e-06</v>
+        <v>2.64679078999285e-06</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>2.569954006265794e-06</v>
+        <v>2.599941283325821e-06</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>2.548305763396043e-06</v>
+        <v>2.576523725632632e-06</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.541159379870696e-06</v>
+        <v>2.566552663436334e-06</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.538199752984089e-06</v>
+        <v>2.560042643260053e-06</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>2.52911178003053e-06</v>
+        <v>2.547008211626873e-06</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.503580358304324e-06</v>
+        <v>2.517463915059884e-06</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.452468912550483e-06</v>
+        <v>2.462597399257596e-06</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.378647453185621e-06</v>
+        <v>2.385547593482111e-06</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>2.291997054989312e-06</v>
+        <v>2.296432198527786e-06</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>2.202486651472785e-06</v>
+        <v>2.205456369244969e-06</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>2.120085176147024e-06</v>
+        <v>2.122825260483752e-06</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.054712983065241e-06</v>
+        <v>2.05869283960418e-06</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.008829367385921e-06</v>
+        <v>2.01535146135456e-06</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.96946244947701e-06</v>
+        <v>1.978833869071628e-06</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.922422187993681e-06</v>
+        <v>1.93390296769106e-06</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.863142176300706e-06</v>
+        <v>1.875652353405756e-06</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.794096844180314e-06</v>
+        <v>1.806733755007774e-06</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.717921726029973e-06</v>
+        <v>1.729971842396193e-06</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.637252356247227e-06</v>
+        <v>1.648191285470164e-06</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.554724269229397e-06</v>
+        <v>1.564216754128617e-06</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.472972999374095e-06</v>
+        <v>1.480872918270775e-06</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.394619116135361e-06</v>
+        <v>1.400968434189402e-06</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.321271277967134e-06</v>
+        <v>1.326229137887023e-06</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.252900353593962e-06</v>
+        <v>1.25662830812552e-06</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.189327900179523e-06</v>
+        <v>1.191979449153363e-06</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.13037547488769e-06</v>
+        <v>1.13209606521921e-06</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.075864634882312e-06</v>
+        <v>1.076791660571699e-06</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.025616937327096e-06</v>
+        <v>1.025879739459328e-06</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>9.794539393858995e-07</v>
+        <v>9.79173806130739e-07</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>9.371971982225625e-07</v>
+        <v>9.364873648345636e-07</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>8.986682710008143e-07</v>
+        <v>8.97633919819318e-07</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>8.636887148845289e-07</v>
+        <v>8.624269753336655e-07</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>8.320800870374486e-07</v>
+        <v>8.306800356261361e-07</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>8.036639446234115e-07</v>
+        <v>8.022066049453567e-07</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>7.782618448062437e-07</v>
+        <v>7.768201875399416e-07</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>7.556953447497046e-07</v>
+        <v>7.543342876584391e-07</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>7.35786001617623e-07</v>
+        <v>7.345624095494661e-07</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>7.183553725738185e-07</v>
+        <v>7.173180574616307e-07</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>7.032250147820649e-07</v>
+        <v>7.02414735643495e-07</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>6.902164854061834e-07</v>
+        <v>6.89665948343669e-07</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>6.79151341609988e-07</v>
+        <v>6.788851998107548e-07</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>6.698511405572642e-07</v>
+        <v>6.698859942933266e-07</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>6.621374394118334e-07</v>
+        <v>6.624818360399939e-07</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>6.558317953374869e-07</v>
+        <v>6.56486229299337e-07</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>6.507557654980373e-07</v>
+        <v>6.517126783199565e-07</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>6.467309070572892e-07</v>
+        <v>6.479746873504455e-07</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>6.435787771790499e-07</v>
+        <v>6.450857606393999e-07</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>6.411209330271188e-07</v>
+        <v>6.428594024354075e-07</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>6.392004558201454e-07</v>
+        <v>6.411318631372161e-07</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>6.377802960775102e-07</v>
+        <v>6.398660683975224e-07</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>6.368648875400668e-07</v>
+        <v>6.390687824297084e-07</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>6.364587040346328e-07</v>
+        <v>6.387468118091273e-07</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>6.365662193880252e-07</v>
+        <v>6.389069631111312e-07</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>6.371919074270622e-07</v>
+        <v>6.395560429110733e-07</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>6.383402419785609e-07</v>
+        <v>6.407008577843055e-07</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>6.400156968693405e-07</v>
+        <v>6.423482143061826e-07</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>6.422227459262183e-07</v>
+        <v>6.445049190520564e-07</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>6.449658629760092e-07</v>
+        <v>6.471777785972772e-07</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>6.482495218455361e-07</v>
+        <v>6.503735995172029e-07</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>6.520781963616104e-07</v>
+        <v>6.5409918838718e-07</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>6.564563603510574e-07</v>
+        <v>6.583613517825689e-07</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>6.61388487640691e-07</v>
+        <v>6.631668962787182e-07</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>6.668790520573242e-07</v>
+        <v>6.685226284509764e-07</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>6.729325274277846e-07</v>
+        <v>6.74435354874706e-07</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>6.79553387578885e-07</v>
+        <v>6.809118821252548e-07</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>6.867461063374366e-07</v>
+        <v>6.879590167779695e-07</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>6.945151575302702e-07</v>
+        <v>6.955835654082151e-07</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>7.028650149841972e-07</v>
+        <v>7.03792334591339e-07</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>7.118001525260273e-07</v>
+        <v>7.125921309026851e-07</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>7.213250439825941e-07</v>
+        <v>7.219897609176228e-07</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>7.314441631806982e-07</v>
+        <v>7.319920312114874e-07</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>7.421619839471756e-07</v>
+        <v>7.426057483596501e-07</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>7.534829801088351e-07</v>
+        <v>7.538377189374547e-07</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>7.654116254924839e-07</v>
+        <v>7.656947495202433e-07</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>7.779523939249607e-07</v>
+        <v>7.7818364668339e-07</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>7.911097592330733e-07</v>
+        <v>7.913112170022373e-07</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>8.048881952436263e-07</v>
+        <v>8.050842670521254e-07</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>8.192921757834625e-07</v>
+        <v>8.195096034084314e-07</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>8.343261746793875e-07</v>
+        <v>8.345940326464968e-07</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>8.499946657582047e-07</v>
+        <v>8.503443613416594e-07</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>8.663021228467601e-07</v>
+        <v>8.667673960693006e-07</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>8.83253019771842e-07</v>
+        <v>8.838699434047435e-07</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>9.008518303602988e-07</v>
+        <v>9.01658809923372e-07</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>9.191730655375678e-07</v>
+        <v>9.202090668902991e-07</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>9.386221654148465e-07</v>
+        <v>9.399183400259761e-07</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>9.597022177843275e-07</v>
+        <v>9.612794315898645e-07</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>9.829163245915357e-07</v>
+        <v>9.847851576365871e-07</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.008767587781917e-06</v>
+        <v>1.010928334220684e-06</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.037759109301004e-06</v>
+        <v>1.040201777396788e-06</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.070393991094264e-06</v>
+        <v>1.073098303219459e-06</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.107175335107149e-06</v>
+        <v>1.110110727743247e-06</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.148606243285212e-06</v>
+        <v>1.151731867022802e-06</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.19518981757391e-06</v>
+        <v>1.198454537112678e-06</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.247429159918681e-06</v>
+        <v>1.250771554067408e-06</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.305795931166592e-06</v>
+        <v>1.309144679550864e-06</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.370200177929171e-06</v>
+        <v>1.373480968528469e-06</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.440067662100698e-06</v>
+        <v>1.443209147676202e-06</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.514808276858248e-06</v>
+        <v>1.517742270129071e-06</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.593831915378633e-06</v>
+        <v>1.596493389021825e-06</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.676548470838942e-06</v>
+        <v>1.678875557489489e-06</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.762367836416054e-06</v>
+        <v>1.764301828666875e-06</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.850699905286833e-06</v>
+        <v>1.852185255688788e-06</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.940954570628387e-06</v>
+        <v>1.941938891690266e-06</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>2.032541725617583e-06</v>
+        <v>2.032975789806115e-06</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>2.124871263431284e-06</v>
+        <v>2.124709003171134e-06</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>2.217353077246606e-06</v>
+        <v>2.216551584920371e-06</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.309397060240408e-06</v>
+        <v>2.307916588188626e-06</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>2.400413105589561e-06</v>
+        <v>2.398217066110701e-06</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>2.489811106471171e-06</v>
+        <v>2.48686607182164e-06</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>2.577635517546161e-06</v>
+        <v>2.573914513162643e-06</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>2.666858423953727e-06</v>
+        <v>2.662356122155184e-06</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>2.761295650121443e-06</v>
+        <v>2.756032748914236e-06</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>2.86476309923316e-06</v>
+        <v>2.858786322719778e-06</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>2.981076674473013e-06</v>
+        <v>2.974458772852068e-06</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>3.114052279024866e-06</v>
+        <v>3.106892028591093e-06</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>3.267505816072519e-06</v>
+        <v>3.259928019216782e-06</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>3.445253188800198e-06</v>
+        <v>3.437408674009485e-06</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>3.651107955207878e-06</v>
+        <v>3.643173480532883e-06</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>3.888157194238811e-06</v>
+        <v>3.880305543975341e-06</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>4.157736684924578e-06</v>
+        <v>4.150064582636295e-06</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>4.460923615362611e-06</v>
+        <v>4.453441079765411e-06</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>4.798795173650216e-06</v>
+        <v>4.791425518612232e-06</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>5.17242854788563e-06</v>
+        <v>5.165008382427231e-06</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>5.582900926166188e-06</v>
+        <v>5.575180154459984e-06</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>6.031289496589106e-06</v>
+        <v>6.022931317959939e-06</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>6.51867144725281e-06</v>
+        <v>6.509252356177763e-06</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>7.045667293670111e-06</v>
+        <v>7.034693158566029e-06</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>7.607324986588634e-06</v>
+        <v>7.594427251835223e-06</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>8.194967940208e-06</v>
+        <v>8.180034761744476e-06</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>8.799851415010812e-06</v>
+        <v>8.783030059930653e-06</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>9.413230671481324e-06</v>
+        <v>9.394927518032255e-06</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>1.002636097010215e-05</v>
+        <v>1.000724150768615e-05</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>1.063049757135592e-05</v>
+        <v>1.061148640052923e-05</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>1.121689573572688e-05</v>
+        <v>1.119917656819999e-05</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.177681072369764e-05</v>
+        <v>1.17618263823353e-05</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.230099793812821e-05</v>
+        <v>1.229041302142661e-05</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.277309671303769e-05</v>
+        <v>1.276826607947157e-05</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.317144846950932e-05</v>
+        <v>1.317302152415226e-05</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.347426835400819e-05</v>
+        <v>1.348217961678901e-05</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.365977151299826e-05</v>
+        <v>1.367324061870098e-05</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.37061730929439e-05</v>
+        <v>1.372370479120776e-05</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.359169938500961e-05</v>
+        <v>1.361108376066425e-05</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.331265900177499e-05</v>
+        <v>1.333132896958401e-05</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>1.292021390455489e-05</v>
+        <v>1.2936329681911e-05</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>1.247588839456995e-05</v>
+        <v>1.248854236910915e-05</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.204120676843388e-05</v>
+        <v>1.205042349796945e-05</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.166519542026579e-05</v>
+        <v>1.16717524942107e-05</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.134796059679164e-05</v>
+        <v>1.135268743964809e-05</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.10776406568031e-05</v>
+        <v>1.108124698654407e-05</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.084237395909075e-05</v>
+        <v>1.084544978716e-05</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.06302988624459e-05</v>
+        <v>1.063331449375797e-05</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.042955372565961e-05</v>
+        <v>1.043285975859984e-05</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.022827690752313e-05</v>
+        <v>1.02321042339476e-05</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.001460676682715e-05</v>
+        <v>1.001906657206277e-05</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>9.776681662363148e-06</v>
+        <v>9.781765425207576e-06</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>9.504706519248167e-06</v>
+        <v>9.510300615313233e-06</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>9.200785771597395e-06</v>
+        <v>9.206755560915545e-06</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>8.871274293441417e-06</v>
+        <v>8.877494156101546e-06</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>8.522532263523233e-06</v>
+        <v>8.528885637156319e-06</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>8.160919860586737e-06</v>
+        <v>8.167299240365839e-06</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>7.792797263375858e-06</v>
+        <v>7.799104202016118e-06</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>7.424524650633532e-06</v>
+        <v>7.430669758392178e-06</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>7.06246220110369e-06</v>
+        <v>7.068365145780029e-06</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>6.712938707318729e-06</v>
+        <v>6.718528256872954e-06</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>6.379239786150013e-06</v>
+        <v>6.384457940979388e-06</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>6.059108505016404e-06</v>
+        <v>6.063918024088396e-06</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>5.749699617398061e-06</v>
+        <v>5.754084817111771e-06</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>5.448167876776016e-06</v>
+        <v>5.452134630962177e-06</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>5.151668036631263e-06</v>
+        <v>5.15524377655225e-06</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>4.85735485044401e-06</v>
+        <v>4.860588564793828e-06</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>4.562383071695257e-06</v>
+        <v>4.565345306599548e-06</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>4.26390745386601e-06</v>
+        <v>4.266690312882052e-06</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.959236684174185e-06</v>
+        <v>3.961952485133318e-06</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>3.649329320172545e-06</v>
+        <v>3.652078748029246e-06</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>3.33885561913761e-06</v>
+        <v>3.341695339322719e-06</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>3.032652139054595e-06</v>
+        <v>3.03559334640902e-06</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>2.735555437909819e-06</v>
+        <v>2.738563856684541e-06</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>2.452402073688517e-06</v>
+        <v>2.455397957544592e-06</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>2.188028604376741e-06</v>
+        <v>2.190886736385294e-06</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.94727158796047e-06</v>
+        <v>1.9498212806027e-06</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.734967582425046e-06</v>
+        <v>1.736992677592223e-06</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.555617738902443e-06</v>
+        <v>1.556883147592179e-06</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.412274515816239e-06</v>
+        <v>1.412640848659566e-06</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.307599330054693e-06</v>
+        <v>1.307053839210787e-06</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.244287473229605e-06</v>
+        <v>1.24294440918302e-06</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.22722114448486e-06</v>
+        <v>1.225344755276276e-06</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.262774361569059e-06</v>
+        <v>1.260784006133188e-06</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.344901641457108e-06</v>
+        <v>1.343173508921938e-06</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.462542155947035e-06</v>
+        <v>1.461329860702637e-06</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.604622949706623e-06</v>
+        <v>1.604057339403623e-06</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.75999535513921e-06</v>
+        <v>1.760086549268281e-06</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.915761470669744e-06</v>
+        <v>1.916445959304979e-06</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>2.057269787429602e-06</v>
+        <v>2.058457647724951e-06</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.169792209620284e-06</v>
+        <v>2.171369167939713e-06</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.238600641443732e-06</v>
+        <v>2.240428073361217e-06</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.248978339612608e-06</v>
+        <v>2.250893257437372e-06</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.198007588924767e-06</v>
+        <v>2.199809676275882e-06</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>2.116882273514491e-06</v>
+        <v>2.118296401606711e-06</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>2.042924713322239e-06</v>
+        <v>2.043594206701389e-06</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>2.011464613371358e-06</v>
+        <v>2.010965645142906e-06</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>2.020446178676024e-06</v>
+        <v>2.018557854209216e-06</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>2.034592932967747e-06</v>
+        <v>2.031537285740324e-06</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>2.017472393090198e-06</v>
+        <v>2.013922736017715e-06</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.9408893294307e-06</v>
+        <v>1.937847165922417e-06</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.811518314411754e-06</v>
+        <v>1.80979228033945e-06</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.645259234143018e-06</v>
+        <v>1.645327244354415e-06</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.458012033457992e-06</v>
+        <v>1.460021280899247e-06</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.265676657190258e-06</v>
+        <v>1.269443612905961e-06</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.084151982469302e-06</v>
+        <v>1.089162423244044e-06</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>9.255085911329795e-07</v>
+        <v>9.310167094553059e-07</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>7.89387083684369e-07</v>
+        <v>7.947372850241741e-07</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>6.729097152745027e-07</v>
+        <v>6.776018150174323e-07</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>5.73198741054788e-07</v>
+        <v>5.768879645022404e-07</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>4.873764161765725e-07</v>
+        <v>4.898733985456989e-07</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>4.12564995790979e-07</v>
+        <v>4.138357822146808e-07</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.458868018855237e-07</v>
+        <v>3.460528473993497e-07</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>2.875798504776182e-07</v>
+        <v>2.86917251710215e-07</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>2.448384460337222e-07</v>
+        <v>2.437165176631586e-07</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.161548010717857e-07</v>
+        <v>2.148874094822895e-07</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.982755142382944e-07</v>
+        <v>1.970982672265451e-07</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.879471841796919e-07</v>
+        <v>1.870174309548211e-07</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>1.819164095424771e-07</v>
+        <v>1.81313240726068e-07</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>1.77377922464031e-07</v>
+        <v>1.771124855606994e-07</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>1.736511480196853e-07</v>
+        <v>1.73715555182147e-07</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>1.706845585616579e-07</v>
+        <v>1.710663664696254e-07</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.684267230070513e-07</v>
+        <v>1.691089350900378e-07</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.668262102729765e-07</v>
+        <v>1.677872767102947e-07</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.658315892765421e-07</v>
+        <v>1.670454069973045e-07</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.653914289348543e-07</v>
+        <v>1.668273416179737e-07</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.654542981650223e-07</v>
+        <v>1.67077096239211e-07</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.659687658841533e-07</v>
+        <v>1.677386865279238e-07</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.668834010093563e-07</v>
+        <v>1.687561281510209e-07</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.681467724577378e-07</v>
+        <v>1.700734367754087e-07</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.697074649067432e-07</v>
+        <v>1.716346609567439e-07</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.715170915637422e-07</v>
+        <v>1.733901692021447e-07</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.735338752376298e-07</v>
+        <v>1.753041229683917e-07</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.757169106452372e-07</v>
+        <v>1.773425032141199e-07</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.780252925033901e-07</v>
+        <v>1.794712908979597e-07</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.804181155289142e-07</v>
+        <v>1.816564669785411e-07</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.828544744386413e-07</v>
+        <v>1.838640124144996e-07</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.852934639493969e-07</v>
+        <v>1.860599081644653e-07</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.876941787780064e-07</v>
+        <v>1.88210135187068e-07</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.900157136413019e-07</v>
+        <v>1.902806744409437e-07</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.922171632561069e-07</v>
+        <v>1.922375068847203e-07</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.942576223392529e-07</v>
+        <v>1.940466134770334e-07</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.960961856075656e-07</v>
+        <v>1.95673975176513e-07</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.976919477778712e-07</v>
+        <v>1.970855729417898e-07</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.990040035670001e-07</v>
+        <v>1.98247387731498e-07</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.999914476917785e-07</v>
+        <v>1.991254005042684e-07</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>2.006133748690336e-07</v>
+        <v>1.996855922187323e-07</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>2.008288798155943e-07</v>
+        <v>1.998939438335227e-07</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.005970572482872e-07</v>
+        <v>1.997164363072706e-07</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.999202413008604e-07</v>
+        <v>1.991590600772862e-07</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.990002044075439e-07</v>
+        <v>1.984123460534167e-07</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.980961819613255e-07</v>
+        <v>1.977199956826478e-07</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.974674146907991e-07</v>
+        <v>1.973257153490076e-07</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.973731433245614e-07</v>
+        <v>1.974732114365261e-07</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.980726085912081e-07</v>
+        <v>1.984061903292329e-07</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.998250512193327e-07</v>
+        <v>2.003683584111549e-07</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.02889711937534e-07</v>
+        <v>2.036034220663251e-07</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.075258314744017e-07</v>
+        <v>2.083550876787664e-07</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.139926505585396e-07</v>
+        <v>2.148670616325168e-07</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.225494099185401e-07</v>
+        <v>2.23383050311602e-07</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.334553502829878e-07</v>
+        <v>2.341467601000407e-07</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.46969712380498e-07</v>
+        <v>2.474018973818816e-07</v>
       </c>
     </row>
   </sheetData>
